--- a/Team-Data/2008-09/3-13-2008-09.xlsx
+++ b/Team-Data/2008-09/3-13-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,85 +733,85 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.576</v>
+        <v>0.569</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P2" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R2" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V2" t="n">
         <v>12.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB2" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -774,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -789,22 +856,22 @@
         <v>21</v>
       </c>
       <c r="AS2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU2" t="n">
         <v>19</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>9</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -869,64 +936,64 @@
         <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AA3" t="n">
         <v>22.7</v>
       </c>
-      <c r="V3" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>22.6</v>
-      </c>
       <c r="AB3" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -959,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
@@ -977,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>27</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.431</v>
+        <v>0.438</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1051,7 +1118,7 @@
         <v>76.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1060,16 +1127,16 @@
         <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
@@ -1102,25 +1169,25 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>-1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1150,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1165,10 +1232,10 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -1215,49 +1282,49 @@
         <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.446</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
         <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
         <v>42.7</v>
@@ -1266,31 +1333,31 @@
         <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.8</v>
+        <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1308,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1323,10 +1390,10 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1344,13 +1411,13 @@
         <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -1397,49 +1464,49 @@
         <v>64</v>
       </c>
       <c r="E6" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.797</v>
       </c>
       <c r="H6" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.755</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>41.6</v>
@@ -1448,49 +1515,49 @@
         <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
         <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1499,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
         <v>2</v>
@@ -1508,7 +1575,7 @@
         <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1523,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1538,10 +1605,10 @@
         <v>6</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.606</v>
+        <v>0.615</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J7" t="n">
-        <v>83</v>
+        <v>82.7</v>
       </c>
       <c r="K7" t="n">
         <v>0.461</v>
@@ -1603,19 +1670,19 @@
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N7" t="n">
         <v>0.346</v>
       </c>
       <c r="O7" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.82</v>
+        <v>0.821</v>
       </c>
       <c r="R7" t="n">
         <v>11.2</v>
@@ -1624,10 +1691,10 @@
         <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
         <v>13.2</v>
@@ -1636,37 +1703,37 @@
         <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
         <v>19.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1675,13 +1742,13 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN7" t="n">
         <v>25</v>
@@ -1696,25 +1763,25 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1848,10 +1915,10 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1881,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1902,7 +1969,7 @@
         <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
         <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J9" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K9" t="n">
         <v>0.454</v>
@@ -1970,31 +2037,31 @@
         <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P9" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.751</v>
       </c>
       <c r="R9" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S9" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T9" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W9" t="n">
         <v>6.2</v>
@@ -2015,10 +2082,10 @@
         <v>93.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2030,13 +2097,13 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
@@ -2048,7 +2115,7 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
@@ -2060,16 +2127,16 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,10 +2145,10 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
         <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.354</v>
+        <v>0.344</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K10" t="n">
         <v>0.457</v>
@@ -2149,10 +2216,10 @@
         <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O10" t="n">
         <v>23.1</v>
@@ -2164,19 +2231,19 @@
         <v>0.784</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U10" t="n">
         <v>20.7</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
@@ -2188,28 +2255,28 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
         <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>15</v>
@@ -2239,22 +2306,22 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2266,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.642</v>
+        <v>0.636</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,10 +2389,10 @@
         <v>35.8</v>
       </c>
       <c r="J11" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
         <v>7.7</v>
@@ -2334,31 +2401,31 @@
         <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O11" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P11" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R11" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S11" t="n">
         <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
         <v>6.9</v>
@@ -2370,25 +2437,25 @@
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC11" t="n">
         <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
@@ -2400,16 +2467,16 @@
         <v>25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
         <v>13</v>
@@ -2424,16 +2491,16 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
         <v>15</v>
@@ -2442,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>24</v>
@@ -2454,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -2486,19 +2553,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.418</v>
+        <v>0.424</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I12" t="n">
         <v>38.9</v>
@@ -2507,22 +2574,22 @@
         <v>86.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O12" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q12" t="n">
         <v>0.8080000000000001</v>
@@ -2534,49 +2601,49 @@
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.5</v>
+        <v>104.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,22 +2652,22 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>3</v>
@@ -2621,7 +2688,7 @@
         <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2630,16 +2697,16 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
@@ -2773,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
         <v>23</v>
@@ -2803,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2818,7 +2885,7 @@
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,40 +2935,40 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P14" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
         <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>13.5</v>
@@ -2919,28 +2986,28 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2952,22 +3019,22 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
         <v>8</v>
       </c>
-      <c r="AP14" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2988,16 +3055,16 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>13</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3062,7 +3129,7 @@
         <v>13.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
@@ -3071,7 +3138,7 @@
         <v>25.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
         <v>10.5</v>
@@ -3083,7 +3150,7 @@
         <v>39.1</v>
       </c>
       <c r="U15" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="V15" t="n">
         <v>15</v>
@@ -3107,22 +3174,22 @@
         <v>93.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3143,16 +3210,16 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
@@ -3164,10 +3231,10 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,7 +3371,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3346,19 +3413,19 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
       </c>
       <c r="AX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" t="n">
         <v>4</v>
       </c>
-      <c r="AY16" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -3417,40 +3484,40 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="N17" t="n">
         <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3462,16 +3529,16 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,22 +3547,22 @@
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3504,16 +3571,16 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" t="n">
-        <v>0.292</v>
+        <v>0.297</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,7 +3663,7 @@
         <v>36.8</v>
       </c>
       <c r="J18" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K18" t="n">
         <v>0.441</v>
@@ -3605,10 +3672,10 @@
         <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O18" t="n">
         <v>19</v>
@@ -3629,34 +3696,34 @@
         <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6.4</v>
       </c>
-      <c r="X18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>6.3</v>
-      </c>
       <c r="Z18" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA18" t="n">
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,13 +3735,13 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3683,16 +3750,16 @@
         <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>14</v>
@@ -3704,25 +3771,25 @@
         <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>0.431</v>
+        <v>0.438</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3787,10 +3854,10 @@
         <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N19" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O19" t="n">
         <v>19.3</v>
@@ -3799,22 +3866,22 @@
         <v>24.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R19" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S19" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U19" t="n">
         <v>19.8</v>
       </c>
       <c r="V19" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W19" t="n">
         <v>7.1</v>
@@ -3823,10 +3890,10 @@
         <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
         <v>20.8</v>
@@ -3835,46 +3902,46 @@
         <v>98.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3886,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU19" t="n">
         <v>28</v>
@@ -3898,19 +3965,19 @@
         <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
         <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.641</v>
+        <v>0.635</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3960,7 +4027,7 @@
         <v>35.3</v>
       </c>
       <c r="J20" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
@@ -3969,34 +4036,34 @@
         <v>7.4</v>
       </c>
       <c r="M20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O20" t="n">
         <v>18.5</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S20" t="n">
         <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="U20" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
@@ -4005,10 +4072,10 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
         <v>20.9</v>
@@ -4017,13 +4084,13 @@
         <v>96.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
@@ -4032,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,16 +4108,16 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
       </c>
       <c r="AM20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>22</v>
@@ -4071,13 +4138,13 @@
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
         <v>24</v>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -4124,97 +4191,97 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
         <v>37</v>
       </c>
       <c r="G21" t="n">
-        <v>0.431</v>
+        <v>0.422</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J21" t="n">
         <v>86.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L21" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M21" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O21" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P21" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T21" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U21" t="n">
         <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
         <v>20.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
         <v>106.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
@@ -4253,13 +4320,13 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,10 +4463,10 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4417,10 +4484,10 @@
         <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>0.738</v>
+        <v>0.734</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O23" t="n">
         <v>20</v>
@@ -4527,46 +4594,46 @@
         <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
         <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V23" t="n">
         <v>14.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
         <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="AC23" t="n">
         <v>7.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4626,7 +4693,7 @@
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
         <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J24" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.316</v>
       </c>
       <c r="O24" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P24" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="Q24" t="n">
         <v>0.74</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S24" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T24" t="n">
         <v>42.2</v>
       </c>
       <c r="U24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V24" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4739,10 +4806,10 @@
         <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC24" t="n">
         <v>0.5</v>
@@ -4760,16 +4827,16 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK24" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4793,13 +4860,13 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT24" t="n">
         <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4811,10 +4878,10 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4963,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
@@ -4981,7 +5048,7 @@
         <v>16</v>
       </c>
       <c r="AU25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -4999,13 +5066,13 @@
         <v>17</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -5037,13 +5104,13 @@
         <v>64</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.641</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5052,37 +5119,37 @@
         <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
         <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5094,40 +5161,40 @@
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF26" t="n">
         <v>7</v>
       </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5139,19 +5206,19 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,19 +5227,19 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,13 +5248,13 @@
         <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -5216,43 +5283,43 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="H27" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O27" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q27" t="n">
         <v>0.801</v>
@@ -5264,7 +5331,7 @@
         <v>28.9</v>
       </c>
       <c r="T27" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
@@ -5276,25 +5343,25 @@
         <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>5</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,22 +5382,22 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5351,22 +5418,22 @@
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5539,7 +5606,7 @@
         <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -5580,46 +5647,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="n">
         <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H29" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I29" t="n">
         <v>36.6</v>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="N29" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O29" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P29" t="n">
         <v>22.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.827</v>
+        <v>0.828</v>
       </c>
       <c r="R29" t="n">
         <v>9</v>
@@ -5628,7 +5695,7 @@
         <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U29" t="n">
         <v>21.8</v>
@@ -5640,10 +5707,10 @@
         <v>6.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
         <v>19.4</v>
@@ -5658,31 +5725,31 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>23</v>
@@ -5691,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>28</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
@@ -5712,16 +5779,16 @@
         <v>8</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>4</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
       </c>
       <c r="AF30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG30" t="n">
         <v>8</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>18</v>
@@ -5879,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>0.227</v>
+        <v>0.231</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5971,10 +6038,10 @@
         <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N31" t="n">
-        <v>0.328</v>
+        <v>0.325</v>
       </c>
       <c r="O31" t="n">
         <v>17.5</v>
@@ -5983,7 +6050,7 @@
         <v>22.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="R31" t="n">
         <v>11.6</v>
@@ -5992,7 +6059,7 @@
         <v>28</v>
       </c>
       <c r="T31" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U31" t="n">
         <v>20.2</v>
@@ -6016,13 +6083,13 @@
         <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC31" t="n">
         <v>-7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6043,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6061,10 +6128,10 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
         <v>30</v>
@@ -6082,7 +6149,7 @@
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
         <v>21</v>
@@ -6094,7 +6161,7 @@
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-13-2008-09</t>
+          <t>2009-03-13</t>
         </is>
       </c>
     </row>
